--- a/biology/Biologie cellulaire et moléculaire/Phénotype_macroscopique/Phénotype_macroscopique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Phénotype_macroscopique/Phénotype_macroscopique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9notype_macroscopique</t>
+          <t>Phénotype_macroscopique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phénotype macroscopique est l'ensemble des traits apparents d'un individu. Il est déterminé par les phénotypes moléculaires et cellulaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ph%C3%A9notype_macroscopique</t>
+          <t>Phénotype_macroscopique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phénotype d'un fruit dépend du plant femelle dont il est originaire (c’est-à-dire du plant portant le pistil fécondé même si l'arbre est autofertile).
 En général, soit la paroi de l'ovaire forme la paroi du fruit (noix, etc.); soit une autre partie de la fleur (femelle) forme le fruit : renflement du réceptacle floral (pommiers, courge) ou inflorescence qui se regroupe (ananas, mûre).
